--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baskausj/Documents/GitHub/dashboard/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63F3003-00D8-B045-A8A2-C0936E2C65CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E0A0E9-7EAE-AF45-8776-AB11FF505D34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14780" yWindow="1300" windowWidth="28800" windowHeight="12040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14780" yWindow="1300" windowWidth="28800" windowHeight="12040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Instructional Sessions</t>
   </si>
   <si>
-    <t xml:space="preserve">Ed Tech/Digital Literacy Instructional Sessions </t>
-  </si>
-  <si>
     <t>Attendees at all events</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>inverseRank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed Tech / Digital Literacy Instructional Sessions </t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -652,7 +652,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2003</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>114</v>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -803,7 +803,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -856,7 +856,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>15388</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>8869</v>
@@ -903,7 +903,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3">
         <v>2376301</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3">
         <v>2969957</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>8524</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>1118709</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>39627</v>
@@ -985,7 +985,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1047,7 +1047,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1059,7 +1059,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1071,7 +1071,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1083,7 +1083,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1113,7 +1113,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1">
         <v>2020</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>19.850000000000001</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>76.67</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>3.48</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="10">
         <v>11</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10">
         <v>86</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="10">
         <v>3</v>
@@ -1195,7 +1195,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1206,22 +1206,22 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>109636</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5">
         <v>43287</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5">
         <v>7524</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5">
         <v>17313</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5">
         <v>26481</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5">
         <v>20589</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5">
         <v>10633</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5">
         <v>38535</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5">
         <v>37557</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="14" spans="1:3" ht="16" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="7">
         <f t="shared" ref="B14" si="0">SUM(B5:B13)</f>
@@ -1320,7 +1320,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3">
         <v>1045017</v>
@@ -1366,7 +1366,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1377,37 +1377,37 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1431,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>979</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>320</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>866</v>
@@ -1474,6 +1474,39 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFBD00BD3A3E1E4A988918AADBA3442C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88f30bb8313cbfe73ab7c84b296b4218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffda594d-e23b-4583-b5d5-0ebe66b53dbd" xmlns:ns3="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f1bc45e0fc885fdfc66bf71deb596f" ns2:_="" ns3:_="">
     <xsd:import namespace="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
@@ -1638,40 +1671,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7953FC9-F19D-4967-A378-149CD58E2AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1688,22 +1706,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baskausj/Documents/GitHub/dashboard/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E0A0E9-7EAE-AF45-8776-AB11FF505D34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C0A4F6-E152-734A-AD04-E69B31A9A9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14780" yWindow="1300" windowWidth="28800" windowHeight="12040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14780" yWindow="1300" windowWidth="28800" windowHeight="12040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -59,12 +59,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-file:///G:\LIBADMIN_STATISTICS\Collections\Archives%20Linear%20Measurements.xlsx</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>file:///G:\LIBADMIN_STATISTICS\Collections\Archives%20Linear%20Measurements.xlsx</t>
         </r>
       </text>
     </comment>
@@ -102,9 +111,6 @@
     <t>TVNA video segments</t>
   </si>
   <si>
-    <t>Special Collections &amp; University Archives, linear footage</t>
-  </si>
-  <si>
     <t>Total Circulation</t>
   </si>
   <si>
@@ -226,6 +232,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ed Tech / Digital Literacy Instructional Sessions </t>
+  </si>
+  <si>
+    <t>Special Collections and University Archives, linear footage</t>
   </si>
 </sst>
 </file>
@@ -269,15 +278,15 @@
       <name val="Source Sans Pro"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -652,7 +661,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1">
         <v>2003</v>
@@ -764,7 +773,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>114</v>
@@ -788,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -803,7 +812,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -847,7 +856,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -892,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -903,7 +912,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -955,7 +964,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3">
         <v>39627</v>
@@ -985,7 +994,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -999,7 +1008,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1009,7 +1018,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1019,7 +1028,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1029,7 +1038,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1037,7 +1046,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1047,7 +1056,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1059,7 +1068,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1071,7 +1080,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1083,7 +1092,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1113,7 +1122,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1">
         <v>2020</v>
@@ -1127,7 +1136,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>19.850000000000001</v>
@@ -1135,7 +1144,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>76.67</v>
@@ -1143,7 +1152,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>3.48</v>
@@ -1151,7 +1160,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10">
         <v>11</v>
@@ -1159,7 +1168,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="10">
         <v>86</v>
@@ -1167,7 +1176,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="10">
         <v>3</v>
@@ -1195,7 +1204,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1206,22 +1215,22 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5">
         <v>109636</v>
@@ -1229,7 +1238,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5">
         <v>43287</v>
@@ -1237,7 +1246,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5">
         <v>7524</v>
@@ -1245,7 +1254,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5">
         <v>17313</v>
@@ -1253,7 +1262,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5">
         <v>26481</v>
@@ -1261,7 +1270,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5">
         <v>20589</v>
@@ -1269,7 +1278,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5">
         <v>10633</v>
@@ -1277,7 +1286,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5">
         <v>38535</v>
@@ -1285,7 +1294,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5">
         <v>37557</v>
@@ -1293,7 +1302,7 @@
     </row>
     <row r="14" spans="1:3" ht="16" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="7">
         <f t="shared" ref="B14" si="0">SUM(B5:B13)</f>
@@ -1320,7 +1329,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1337,7 +1346,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3">
         <v>1045017</v>
@@ -1366,7 +1375,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1377,32 +1386,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1431,7 +1440,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1445,7 +1454,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2">
         <v>979</v>
@@ -1453,7 +1462,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>320</v>
@@ -1461,7 +1470,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>866</v>
@@ -1474,6 +1483,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
@@ -1495,15 +1513,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1672,19 +1681,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baskausj/Documents/GitHub/dashboard/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C0A4F6-E152-734A-AD04-E69B31A9A9FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1A54AA-17F5-B045-9FA1-7E7AC073D830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14780" yWindow="1300" windowWidth="28800" windowHeight="12040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14780" yWindow="1300" windowWidth="28800" windowHeight="12040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">Ed Tech / Digital Literacy Instructional Sessions </t>
   </si>
   <si>
-    <t>Special Collections and University Archives, linear footage</t>
+    <t>Special Collections &amp; University Archives, linear footage</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -901,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1492,30 +1492,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFBD00BD3A3E1E4A988918AADBA3442C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88f30bb8313cbfe73ab7c84b296b4218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffda594d-e23b-4583-b5d5-0ebe66b53dbd" xmlns:ns3="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f1bc45e0fc885fdfc66bf71deb596f" ns2:_="" ns3:_="">
     <xsd:import namespace="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
@@ -1680,6 +1656,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
@@ -1689,16 +1689,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7953FC9-F19D-4967-A378-149CD58E2AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1715,4 +1705,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baskausj/Documents/GitHub/dashboard/python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1A54AA-17F5-B045-9FA1-7E7AC073D830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE4161-4780-4316-A15F-AB8BDD18D286}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14780" yWindow="1300" windowWidth="28800" windowHeight="12040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="465" windowWidth="27240" windowHeight="15030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -59,21 +59,12 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>file:///G:\LIBADMIN_STATISTICS\Collections\Archives%20Linear%20Measurements.xlsx</t>
+file:///G:\LIBADMIN_STATISTICS\Collections\Archives%20Linear%20Measurements.xlsx</t>
         </r>
       </text>
     </comment>
@@ -111,6 +102,9 @@
     <t>TVNA video segments</t>
   </si>
   <si>
+    <t>Special Collections &amp; University Archives, linear footage</t>
+  </si>
+  <si>
     <t>Total Circulation</t>
   </si>
   <si>
@@ -231,10 +225,7 @@
     <t>inverseRank</t>
   </si>
   <si>
-    <t xml:space="preserve">Ed Tech / Digital Literacy Instructional Sessions </t>
-  </si>
-  <si>
-    <t>Special Collections &amp; University Archives, linear footage</t>
+    <t xml:space="preserve">Ed Tech/Digital Literacy Instructional Sessions </t>
   </si>
 </sst>
 </file>
@@ -245,7 +236,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,15 +269,15 @@
       <name val="Source Sans Pro"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -650,18 +641,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2003</v>
@@ -718,7 +709,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -771,9 +762,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>114</v>
@@ -797,22 +788,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -830,7 +821,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -840,7 +831,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -854,16 +845,18 @@
         <v>768</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="C4" s="11">
+        <v>100</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -877,7 +870,7 @@
         <v>11134</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -902,17 +895,17 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -924,7 +917,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -932,7 +925,7 @@
         <v>2376301</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -940,7 +933,7 @@
         <v>2969957</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -951,7 +944,7 @@
         <v>8323</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -962,9 +955,9 @@
         <v>1107223</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>39627</v>
@@ -985,16 +978,16 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1006,9 +999,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1016,9 +1009,9 @@
         <v>103310</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1026,9 +1019,9 @@
         <v>4036320</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1036,17 +1029,17 @@
         <v>1390660</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1054,9 +1047,9 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1066,9 +1059,9 @@
         <v>1858185</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1078,9 +1071,9 @@
         <v>15401</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1090,9 +1083,9 @@
         <v>16660</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1114,15 +1107,15 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1">
         <v>2020</v>
@@ -1134,49 +1127,49 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>76.67</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>3.48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="10">
         <v>3</v>
@@ -1196,15 +1189,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1213,96 +1206,96 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>109636</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5">
         <v>43287</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5">
         <v>7524</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="5">
         <v>17313</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5">
         <v>26481</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5">
         <v>20589</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="5">
         <v>10633</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5">
         <v>38535</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5">
         <v>37557</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16" thickBot="1">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="7">
         <f t="shared" ref="B14" si="0">SUM(B5:B13)</f>
@@ -1322,14 +1315,14 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1344,9 +1337,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3">
         <v>1045017</v>
@@ -1368,14 +1361,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1384,37 +1377,37 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1433,14 +1426,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1452,25 +1445,25 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>979</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>866</v>
@@ -1483,15 +1476,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFBD00BD3A3E1E4A988918AADBA3442C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88f30bb8313cbfe73ab7c84b296b4218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffda594d-e23b-4583-b5d5-0ebe66b53dbd" xmlns:ns3="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f1bc45e0fc885fdfc66bf71deb596f" ns2:_="" ns3:_="">
     <xsd:import namespace="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
@@ -1656,6 +1640,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1681,14 +1674,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7953FC9-F19D-4967-A378-149CD58E2AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1707,6 +1692,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>

--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baskausj/Documents/GitHub/dashboard/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EE4161-4780-4316-A15F-AB8BDD18D286}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA29313-4A5E-9D43-BB3D-21B1F64C8BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="465" windowWidth="27240" windowHeight="15030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1480" windowWidth="32320" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -59,12 +59,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-file:///G:\LIBADMIN_STATISTICS\Collections\Archives%20Linear%20Measurements.xlsx</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>file:///G:\LIBADMIN_STATISTICS\Collections\Archives%20Linear%20Measurements.xlsx</t>
         </r>
       </text>
     </comment>
@@ -102,130 +111,130 @@
     <t>TVNA video segments</t>
   </si>
   <si>
+    <t>Total Circulation</t>
+  </si>
+  <si>
+    <t>Article Downloads</t>
+  </si>
+  <si>
+    <t>Research Database Searches</t>
+  </si>
+  <si>
+    <t>Library Catalog Searches</t>
+  </si>
+  <si>
+    <t>VUIR Downloads</t>
+  </si>
+  <si>
+    <t>ILL Borrowing</t>
+  </si>
+  <si>
+    <t>ILL Lending</t>
+  </si>
+  <si>
+    <t>Faculty Delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Material Expenditures for One-Time </t>
+  </si>
+  <si>
+    <t>% Material Expenditures for Recurring</t>
+  </si>
+  <si>
+    <t>%Other  Material Expenditures (collection maintance/binding)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Material Expenditures for Print </t>
+  </si>
+  <si>
+    <t>% Material Expenditures for Electronic</t>
+  </si>
+  <si>
+    <t>% Other Material Expenditures (collection maintance, binding)</t>
+  </si>
+  <si>
+    <t>Total Seating in Each Library</t>
+  </si>
+  <si>
+    <t>Total Sq Footage in Each Library</t>
+  </si>
+  <si>
+    <t>Total Permanent Staff in each campus library or unit</t>
+  </si>
+  <si>
+    <t>Central / Divinity / Special Collections</t>
+  </si>
+  <si>
+    <t>Law Library</t>
+  </si>
+  <si>
+    <t>Music Library</t>
+  </si>
+  <si>
+    <t>Biomedical Library</t>
+  </si>
+  <si>
+    <t>Peabody Library</t>
+  </si>
+  <si>
+    <t>Science &amp; Engineering Library</t>
+  </si>
+  <si>
+    <t>Management Library</t>
+  </si>
+  <si>
+    <t>21 North</t>
+  </si>
+  <si>
+    <t>Hillside Annex</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Visitors to Libraries</t>
+  </si>
+  <si>
+    <t>Total Page Views</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>Library Catalog</t>
+  </si>
+  <si>
+    <t>Research Guides</t>
+  </si>
+  <si>
+    <t>Library News Online</t>
+  </si>
+  <si>
+    <t>TV News Archive</t>
+  </si>
+  <si>
+    <t>Facebook Followers</t>
+  </si>
+  <si>
+    <t>Instagram Followers</t>
+  </si>
+  <si>
+    <t>Twitter Followers</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>inverseRank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ed Tech / Digital Literacy Instructional Sessions </t>
+  </si>
+  <si>
     <t>Special Collections &amp; University Archives, linear footage</t>
   </si>
   <si>
-    <t>Total Circulation</t>
-  </si>
-  <si>
-    <t>Article Downloads</t>
-  </si>
-  <si>
-    <t>Ebook, chapter Downloads</t>
-  </si>
-  <si>
-    <t>Research Database Searches</t>
-  </si>
-  <si>
-    <t>Library Catalog Searches</t>
-  </si>
-  <si>
-    <t>VUIR Downloads</t>
-  </si>
-  <si>
-    <t>ILL Borrowing</t>
-  </si>
-  <si>
-    <t>ILL Lending</t>
-  </si>
-  <si>
-    <t>Faculty Delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Material Expenditures for One-Time </t>
-  </si>
-  <si>
-    <t>% Material Expenditures for Recurring</t>
-  </si>
-  <si>
-    <t>%Other  Material Expenditures (collection maintance/binding)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Material Expenditures for Print </t>
-  </si>
-  <si>
-    <t>% Material Expenditures for Electronic</t>
-  </si>
-  <si>
-    <t>% Other Material Expenditures (collection maintance, binding)</t>
-  </si>
-  <si>
-    <t>Total Seating in Each Library</t>
-  </si>
-  <si>
-    <t>Total Sq Footage in Each Library</t>
-  </si>
-  <si>
-    <t>Total Permanent Staff in each campus library or unit</t>
-  </si>
-  <si>
-    <t>Central / Divinity / Special Collections</t>
-  </si>
-  <si>
-    <t>Law Library</t>
-  </si>
-  <si>
-    <t>Music Library</t>
-  </si>
-  <si>
-    <t>Biomedical Library</t>
-  </si>
-  <si>
-    <t>Peabody Library</t>
-  </si>
-  <si>
-    <t>Science &amp; Engineering Library</t>
-  </si>
-  <si>
-    <t>Management Library</t>
-  </si>
-  <si>
-    <t>21 North</t>
-  </si>
-  <si>
-    <t>Hillside Annex</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Visitors to Libraries</t>
-  </si>
-  <si>
-    <t>Total Page Views</t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t>Library Catalog</t>
-  </si>
-  <si>
-    <t>Research Guides</t>
-  </si>
-  <si>
-    <t>Library News Online</t>
-  </si>
-  <si>
-    <t>TV News Archive</t>
-  </si>
-  <si>
-    <t>Facebook Followers</t>
-  </si>
-  <si>
-    <t>Instagram Followers</t>
-  </si>
-  <si>
-    <t>Twitter Followers</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>inverseRank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ed Tech/Digital Literacy Instructional Sessions </t>
+    <t>Ebook chapter Downloads</t>
   </si>
 </sst>
 </file>
@@ -236,7 +245,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,15 +278,15 @@
       <name val="Source Sans Pro"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -641,18 +650,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>2003</v>
@@ -709,7 +718,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -762,9 +771,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>114</v>
@@ -788,22 +797,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -821,7 +830,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -831,7 +840,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -845,18 +854,16 @@
         <v>768</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="11">
-        <v>100</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -870,7 +877,7 @@
         <v>11134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -895,17 +902,17 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -917,7 +924,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -925,7 +932,7 @@
         <v>2376301</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -933,7 +940,7 @@
         <v>2969957</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -944,7 +951,7 @@
         <v>8323</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -955,9 +962,9 @@
         <v>1107223</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3">
         <v>39627</v>
@@ -974,20 +981,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -999,9 +1006,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1009,9 +1016,9 @@
         <v>103310</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1019,9 +1026,9 @@
         <v>4036320</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1029,17 +1036,17 @@
         <v>1390660</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -1047,9 +1054,9 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -1059,9 +1066,9 @@
         <v>1858185</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
@@ -1071,9 +1078,9 @@
         <v>15401</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -1083,9 +1090,9 @@
         <v>16660</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -1107,15 +1114,15 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1">
         <v>2020</v>
@@ -1127,49 +1134,49 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>76.67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>3.48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="10">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="10">
         <v>3</v>
@@ -1189,15 +1196,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1206,96 +1213,96 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="B5" s="5">
         <v>109636</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5">
         <v>43287</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="5">
         <v>7524</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5">
         <v>17313</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5">
         <v>26481</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5">
         <v>20589</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5">
         <v>10633</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5">
         <v>38535</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5">
         <v>37557</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="7">
         <f t="shared" ref="B14" si="0">SUM(B5:B13)</f>
@@ -1315,14 +1322,14 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1337,9 +1344,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="3">
         <v>1045017</v>
@@ -1361,14 +1368,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1377,37 +1384,37 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1426,14 +1433,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1445,25 +1452,25 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>979</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>866</v>
@@ -1476,6 +1483,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFBD00BD3A3E1E4A988918AADBA3442C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88f30bb8313cbfe73ab7c84b296b4218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffda594d-e23b-4583-b5d5-0ebe66b53dbd" xmlns:ns3="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f1bc45e0fc885fdfc66bf71deb596f" ns2:_="" ns3:_="">
     <xsd:import namespace="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
@@ -1640,7 +1671,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1649,31 +1680,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7953FC9-F19D-4967-A378-149CD58E2AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1692,20 +1709,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baskausj/Documents/GitHub/dashboard/python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA29313-4A5E-9D43-BB3D-21B1F64C8BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27CADBD-4837-454C-802C-194805F2F690}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1480" windowWidth="32320" windowHeight="15660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="465" windowWidth="27240" windowHeight="15030" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Visitors" sheetId="7" r:id="rId7"/>
     <sheet name="Website" sheetId="8" r:id="rId8"/>
     <sheet name="SocialMedia" sheetId="9" r:id="rId9"/>
+    <sheet name="NOTES" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,67 +39,12 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Lannom, Lee Ann</author>
-  </authors>
-  <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Lannom, Lee Ann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>file:///G:\LIBADMIN_STATISTICS\Collections\Archives%20Linear%20Measurements.xlsx</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Rank</t>
   </si>
   <si>
-    <t>Public Events</t>
-  </si>
-  <si>
-    <t>Instructional Sessions</t>
-  </si>
-  <si>
-    <t>Attendees at all events</t>
-  </si>
-  <si>
-    <t>Research Assistance</t>
-  </si>
-  <si>
     <t>Print Items in Collection</t>
   </si>
   <si>
@@ -108,33 +54,6 @@
     <t>VUIR</t>
   </si>
   <si>
-    <t>TVNA video segments</t>
-  </si>
-  <si>
-    <t>Total Circulation</t>
-  </si>
-  <si>
-    <t>Article Downloads</t>
-  </si>
-  <si>
-    <t>Research Database Searches</t>
-  </si>
-  <si>
-    <t>Library Catalog Searches</t>
-  </si>
-  <si>
-    <t>VUIR Downloads</t>
-  </si>
-  <si>
-    <t>ILL Borrowing</t>
-  </si>
-  <si>
-    <t>ILL Lending</t>
-  </si>
-  <si>
-    <t>Faculty Delivery</t>
-  </si>
-  <si>
     <t xml:space="preserve">% Material Expenditures for One-Time </t>
   </si>
   <si>
@@ -156,9 +75,6 @@
     <t>Total Seating in Each Library</t>
   </si>
   <si>
-    <t>Total Sq Footage in Each Library</t>
-  </si>
-  <si>
     <t>Total Permanent Staff in each campus library or unit</t>
   </si>
   <si>
@@ -192,12 +108,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Visitors to Libraries</t>
-  </si>
-  <si>
-    <t>Total Page Views</t>
-  </si>
-  <si>
     <t>Home Page</t>
   </si>
   <si>
@@ -213,28 +123,97 @@
     <t>TV News Archive</t>
   </si>
   <si>
-    <t>Facebook Followers</t>
-  </si>
-  <si>
-    <t>Instagram Followers</t>
-  </si>
-  <si>
-    <t>Twitter Followers</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
     <t>inverseRank</t>
   </si>
   <si>
-    <t xml:space="preserve">Ed Tech / Digital Literacy Instructional Sessions </t>
-  </si>
-  <si>
-    <t>Special Collections &amp; University Archives, linear footage</t>
-  </si>
-  <si>
-    <t>Ebook chapter Downloads</t>
+    <t>Research assistance</t>
+  </si>
+  <si>
+    <t>Library presentations</t>
+  </si>
+  <si>
+    <t>Presentation attendance</t>
+  </si>
+  <si>
+    <t>Special Collections &amp; University Archives linear footage -file:///G:\LIBADMIN_STATISTICS\Collections\Archives Linear Measurements.xlsx</t>
+  </si>
+  <si>
+    <t>TV News Archive video segments</t>
+  </si>
+  <si>
+    <t>Institutional Repository items</t>
+  </si>
+  <si>
+    <t>Linear feet in Special Collections &amp; University Archives</t>
+  </si>
+  <si>
+    <t>Institutional repository downloads</t>
+  </si>
+  <si>
+    <t>Items borrowed from libraries around the world</t>
+  </si>
+  <si>
+    <t>Items delivered to faculty offices</t>
+  </si>
+  <si>
+    <t>items loaned to libraries around the world</t>
+  </si>
+  <si>
+    <t>Research database searches</t>
+  </si>
+  <si>
+    <t>Library catalog searches</t>
+  </si>
+  <si>
+    <t>E-book downloads</t>
+  </si>
+  <si>
+    <t>Article downloads</t>
+  </si>
+  <si>
+    <t>Physical items borrowed</t>
+  </si>
+  <si>
+    <t>Library visitors</t>
+  </si>
+  <si>
+    <t>Facebook followers</t>
+  </si>
+  <si>
+    <t>Instagram followers</t>
+  </si>
+  <si>
+    <t>Twitter followers</t>
+  </si>
+  <si>
+    <t>Website page views</t>
+  </si>
+  <si>
+    <t>Othe Website stats to get:</t>
+  </si>
+  <si>
+    <t>For Spaces/Staff</t>
+  </si>
+  <si>
+    <t>Total square footage by library</t>
+  </si>
+  <si>
+    <t>Campus libraries</t>
+  </si>
+  <si>
+    <t>Net square footage</t>
+  </si>
+  <si>
+    <t>Seats</t>
+  </si>
+  <si>
+    <t>Permanent library staff</t>
+  </si>
+  <si>
+    <t>Study rooms</t>
   </si>
 </sst>
 </file>
@@ -245,7 +224,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,19 +255,6 @@
       <b/>
       <sz val="11"/>
       <name val="Source Sans Pro"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -348,7 +314,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -366,6 +332,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -650,18 +618,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>2003</v>
@@ -718,7 +686,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -771,9 +739,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>114</v>
@@ -793,101 +761,237 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAE3CCC-026D-48E6-81CC-AD7B742A003E}">
+  <dimension ref="A3:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5">
+        <v>109636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5">
+        <v>17313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5">
+        <v>26481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="5">
+        <v>20589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="5">
+        <v>10633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="5">
+        <v>38535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="5">
+        <v>37557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7">
+        <f>SUM(B19:B27)</f>
+        <v>311555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E1">
-        <v>2017</v>
-      </c>
-      <c r="F1">
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1044</v>
       </c>
       <c r="C2">
-        <v>89</v>
-      </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>898</v>
+      </c>
+      <c r="D2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>955</v>
-      </c>
-      <c r="D3">
-        <v>898</v>
-      </c>
-      <c r="E3">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="B3" s="13">
+        <v>15758</v>
+      </c>
+      <c r="C3" s="2">
+        <v>11372</v>
+      </c>
+      <c r="D3" s="3">
+        <v>11134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>15388</v>
-      </c>
-      <c r="D5" s="2">
-        <v>11372</v>
-      </c>
-      <c r="E5" s="3">
-        <v>11134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
+        <v>29</v>
+      </c>
+      <c r="B4" s="14">
         <v>8869</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C4" s="2">
         <v>7603</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D4" s="2">
         <v>8383</v>
       </c>
     </row>
@@ -898,207 +1002,193 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C1">
-        <v>2019</v>
-      </c>
-      <c r="D1">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="3">
         <v>2376301</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="3">
         <v>2969957</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="B4" s="13">
+        <v>8524</v>
       </c>
       <c r="C4">
-        <v>8524</v>
-      </c>
-      <c r="D4">
         <v>8323</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>33</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1118709</v>
       </c>
       <c r="C5" s="3">
-        <v>1118709</v>
-      </c>
-      <c r="D5" s="3">
         <v>1107223</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3">
+        <v>35</v>
+      </c>
+      <c r="B6" s="13">
         <v>39627</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C1">
-        <v>2019</v>
-      </c>
-      <c r="D1">
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
+        <v>44</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="3">
         <v>103310</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9">
+        <v>43</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="9">
         <v>4036320</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+        <v>42</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="3">
         <v>1390660</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B5" s="13"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+        <v>41</v>
+      </c>
+      <c r="B6" s="13">
         <v>2507326</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1667795</v>
+      </c>
       <c r="C7" s="3">
-        <v>1667795</v>
-      </c>
-      <c r="D7" s="3">
         <v>1858185</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B8" s="13">
+        <v>15606</v>
+      </c>
       <c r="C8" s="3">
-        <v>15606</v>
-      </c>
-      <c r="D8" s="3">
         <v>15401</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B9" s="13">
+        <v>15549</v>
+      </c>
       <c r="C9" s="3">
-        <v>15549</v>
-      </c>
-      <c r="D9" s="3">
         <v>16660</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
+        <v>38</v>
+      </c>
+      <c r="B10" s="13">
         <v>7383</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1111,18 +1201,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1">
         <v>2020</v>
@@ -1134,49 +1224,49 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>76.67</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>3.48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D5" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D6" s="10">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10">
         <v>3</v>
@@ -1190,123 +1280,55 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>311555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5">
-        <v>109636</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="5">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="5">
-        <v>17313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5">
-        <v>26481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="5">
-        <v>20589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="5">
-        <v>10633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="5">
-        <v>38535</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="5">
-        <v>37557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" thickBot="1">
-      <c r="A14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="7">
-        <f t="shared" ref="B14" si="0">SUM(B5:B13)</f>
-        <v>311555</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1319,17 +1341,17 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -1344,9 +1366,12 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>1206444</v>
       </c>
       <c r="D2" s="3">
         <v>1045017</v>
@@ -1362,61 +1387,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>1155944</v>
       </c>
     </row>
   </sheetData>
@@ -1427,52 +1422,58 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B1">
-        <v>2020</v>
-      </c>
-      <c r="C1">
-        <v>2019</v>
-      </c>
-      <c r="D1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2">
+      <c r="B2">
+        <v>2416</v>
+      </c>
+      <c r="C2">
         <v>979</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>406</v>
+      </c>
+      <c r="C3">
         <v>320</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>911</v>
+      </c>
+      <c r="C4">
         <v>866</v>
       </c>
     </row>
@@ -1507,6 +1508,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFBD00BD3A3E1E4A988918AADBA3442C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88f30bb8313cbfe73ab7c84b296b4218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffda594d-e23b-4583-b5d5-0ebe66b53dbd" xmlns:ns3="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f1bc45e0fc885fdfc66bf71deb596f" ns2:_="" ns3:_="">
     <xsd:import namespace="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
@@ -1671,15 +1681,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
@@ -1691,6 +1692,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7953FC9-F19D-4967-A378-149CD58E2AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1707,12 +1716,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27CADBD-4837-454C-802C-194805F2F690}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31A2ED5-C800-4F66-A992-2ABB2642A04B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="465" windowWidth="27240" windowHeight="15030" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="465" windowWidth="27240" windowHeight="15030" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Visitors" sheetId="7" r:id="rId7"/>
     <sheet name="Website" sheetId="8" r:id="rId8"/>
     <sheet name="SocialMedia" sheetId="9" r:id="rId9"/>
-    <sheet name="NOTES" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Rank</t>
   </si>
@@ -51,9 +50,6 @@
     <t>Electronic Items in Collection</t>
   </si>
   <si>
-    <t>VUIR</t>
-  </si>
-  <si>
     <t xml:space="preserve">% Material Expenditures for One-Time </t>
   </si>
   <si>
@@ -72,57 +68,6 @@
     <t>% Other Material Expenditures (collection maintance, binding)</t>
   </si>
   <si>
-    <t>Total Seating in Each Library</t>
-  </si>
-  <si>
-    <t>Total Permanent Staff in each campus library or unit</t>
-  </si>
-  <si>
-    <t>Central / Divinity / Special Collections</t>
-  </si>
-  <si>
-    <t>Law Library</t>
-  </si>
-  <si>
-    <t>Music Library</t>
-  </si>
-  <si>
-    <t>Biomedical Library</t>
-  </si>
-  <si>
-    <t>Peabody Library</t>
-  </si>
-  <si>
-    <t>Science &amp; Engineering Library</t>
-  </si>
-  <si>
-    <t>Management Library</t>
-  </si>
-  <si>
-    <t>21 North</t>
-  </si>
-  <si>
-    <t>Hillside Annex</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t>Library Catalog</t>
-  </si>
-  <si>
-    <t>Research Guides</t>
-  </si>
-  <si>
-    <t>Library News Online</t>
-  </si>
-  <si>
-    <t>TV News Archive</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -138,9 +83,6 @@
     <t>Presentation attendance</t>
   </si>
   <si>
-    <t>Special Collections &amp; University Archives linear footage -file:///G:\LIBADMIN_STATISTICS\Collections\Archives Linear Measurements.xlsx</t>
-  </si>
-  <si>
     <t>TV News Archive video segments</t>
   </si>
   <si>
@@ -190,15 +132,6 @@
   </si>
   <si>
     <t>Website page views</t>
-  </si>
-  <si>
-    <t>Othe Website stats to get:</t>
-  </si>
-  <si>
-    <t>For Spaces/Staff</t>
-  </si>
-  <si>
-    <t>Total square footage by library</t>
   </si>
   <si>
     <t>Campus libraries</t>
@@ -224,7 +157,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,15 +180,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Source Sans Pro"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Source Sans Pro"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -271,41 +195,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -314,19 +209,11 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -629,7 +516,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>2003</v>
@@ -741,7 +628,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N3">
         <v>114</v>
@@ -754,165 +641,6 @@
       </c>
       <c r="Q3">
         <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAE3CCC-026D-48E6-81CC-AD7B742A003E}">
-  <dimension ref="A3:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5">
-        <v>109636</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="5">
-        <v>43287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5">
-        <v>7524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="5">
-        <v>17313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="5">
-        <v>26481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="5">
-        <v>20589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="5">
-        <v>10633</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="5">
-        <v>38535</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="5">
-        <v>37557</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="7">
-        <f>SUM(B19:B27)</f>
-        <v>311555</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +666,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -955,7 +683,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1044</v>
@@ -969,9 +697,9 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="13">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9">
         <v>15758</v>
       </c>
       <c r="C3" s="2">
@@ -983,9 +711,9 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="14">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10">
         <v>8869</v>
       </c>
       <c r="C4" s="2">
@@ -1016,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -1029,7 +757,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="3">
         <v>2376301</v>
       </c>
@@ -1038,16 +766,16 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3">
         <v>2969957</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="13">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9">
         <v>8524</v>
       </c>
       <c r="C4">
@@ -1056,9 +784,9 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="13">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9">
         <v>1118709</v>
       </c>
       <c r="C5" s="3">
@@ -1067,12 +795,12 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="13">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
         <v>39627</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1083,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1096,7 +824,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -1107,52 +835,52 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="B2" s="9"/>
       <c r="C2" s="3">
         <v>103310</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="9">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="5">
         <v>4036320</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="3">
         <v>1390660</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="13"/>
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="13">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9">
         <v>2507326</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="13">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9">
         <v>1667795</v>
       </c>
       <c r="C7" s="3">
@@ -1161,9 +889,9 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="13">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9">
         <v>15606</v>
       </c>
       <c r="C8" s="3">
@@ -1172,9 +900,9 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="13">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9">
         <v>15549</v>
       </c>
       <c r="C9" s="3">
@@ -1183,9 +911,9 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="13">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9">
         <v>7383</v>
       </c>
       <c r="C10" s="3"/>
@@ -1212,7 +940,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1">
         <v>2020</v>
@@ -1226,7 +954,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>19.850000000000001</v>
@@ -1234,7 +962,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>76.67</v>
@@ -1242,7 +970,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>3.48</v>
@@ -1250,25 +978,25 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1282,7 +1010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1294,7 +1022,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -1302,7 +1030,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -1310,7 +1038,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>311555</v>
@@ -1318,17 +1046,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1338,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,34 +1077,31 @@
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D1">
-        <v>2018</v>
-      </c>
-      <c r="E1">
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="B2">
         <v>1206444</v>
       </c>
+      <c r="C2" s="3">
+        <v>1045017</v>
+      </c>
       <c r="D2" s="3">
-        <v>1045017</v>
-      </c>
-      <c r="E2" s="3">
         <v>911226</v>
       </c>
     </row>
@@ -1400,7 +1125,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -1408,7 +1133,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1155944</v>
@@ -1435,7 +1160,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -1446,7 +1171,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>2416</v>
@@ -1457,7 +1182,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>406</v>
@@ -1468,7 +1193,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>911</v>
@@ -1484,39 +1209,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFBD00BD3A3E1E4A988918AADBA3442C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88f30bb8313cbfe73ab7c84b296b4218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffda594d-e23b-4583-b5d5-0ebe66b53dbd" xmlns:ns3="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f1bc45e0fc885fdfc66bf71deb596f" ns2:_="" ns3:_="">
     <xsd:import namespace="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
@@ -1681,25 +1373,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7953FC9-F19D-4967-A378-149CD58E2AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1716,4 +1423,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baskausj/Documents/GitHub/dashboard/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31A2ED5-C800-4F66-A992-2ABB2642A04B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49037381-522F-1245-B89E-EF7DFD316838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="465" windowWidth="27240" windowHeight="15030" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Rank</t>
   </si>
@@ -68,12 +68,6 @@
     <t>% Other Material Expenditures (collection maintance, binding)</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>inverseRank</t>
-  </si>
-  <si>
     <t>Research assistance</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Items delivered to faculty offices</t>
   </si>
   <si>
-    <t>items loaned to libraries around the world</t>
-  </si>
-  <si>
     <t>Research database searches</t>
   </si>
   <si>
@@ -147,6 +138,12 @@
   </si>
   <si>
     <t>Study rooms</t>
+  </si>
+  <si>
+    <t>Items loaned to libraries around the world</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -217,10 +214,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -503,144 +500,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2003</v>
-      </c>
-      <c r="C1">
-        <v>2004</v>
-      </c>
-      <c r="D1">
-        <v>2005</v>
-      </c>
-      <c r="E1">
-        <v>2006</v>
-      </c>
-      <c r="F1">
-        <v>2007</v>
-      </c>
-      <c r="G1">
-        <v>2008</v>
-      </c>
-      <c r="H1">
-        <v>2009</v>
-      </c>
-      <c r="I1">
-        <v>2010</v>
-      </c>
-      <c r="J1">
-        <v>2011</v>
-      </c>
-      <c r="K1">
-        <v>2012</v>
-      </c>
-      <c r="L1">
-        <v>2013</v>
-      </c>
-      <c r="M1">
-        <v>2014</v>
-      </c>
-      <c r="N1">
-        <v>2015</v>
-      </c>
-      <c r="O1">
-        <v>2016</v>
-      </c>
-      <c r="P1">
-        <v>2017</v>
-      </c>
-      <c r="Q1">
-        <v>2018</v>
-      </c>
-      <c r="R1">
-        <v>2019</v>
-      </c>
-      <c r="S1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2">
         <v>55</v>
       </c>
-      <c r="C2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3">
         <v>52</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2005</v>
+      </c>
+      <c r="B4">
         <v>50</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5">
         <v>51</v>
       </c>
-      <c r="F2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2007</v>
+      </c>
+      <c r="B6">
         <v>45</v>
       </c>
-      <c r="G2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2008</v>
+      </c>
+      <c r="B7">
         <v>51</v>
       </c>
-      <c r="H2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2009</v>
+      </c>
+      <c r="B8">
         <v>53</v>
       </c>
-      <c r="I2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9">
         <v>52</v>
       </c>
-      <c r="J2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10">
         <v>52</v>
       </c>
-      <c r="K2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11">
         <v>59</v>
       </c>
-      <c r="L2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12">
         <v>61</v>
       </c>
-      <c r="M2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13">
         <v>57</v>
       </c>
-      <c r="N2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14">
         <v>54</v>
       </c>
-      <c r="O2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15">
         <v>49</v>
       </c>
-      <c r="P2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16">
         <v>42</v>
       </c>
-      <c r="Q2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17">
         <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3">
-        <v>114</v>
-      </c>
-      <c r="O3">
-        <v>114</v>
-      </c>
-      <c r="P3">
-        <v>114</v>
-      </c>
-      <c r="Q3">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -650,74 +654,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="B1">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2019</v>
-      </c>
-      <c r="C1">
-        <v>2018</v>
-      </c>
-      <c r="D1">
-        <v>2017</v>
-      </c>
-      <c r="E1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2">
         <v>1044</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
+        <v>15758</v>
+      </c>
+      <c r="D2" s="9">
+        <v>8869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3">
         <v>898</v>
-      </c>
-      <c r="D2">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9">
-        <v>15758</v>
       </c>
       <c r="C3" s="2">
         <v>11372</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
+        <v>7603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>768</v>
+      </c>
+      <c r="C4" s="3">
         <v>11134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="10">
-        <v>8869</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7603</v>
       </c>
       <c r="D4" s="2">
         <v>8383</v>
@@ -731,76 +732,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2019</v>
       </c>
-      <c r="C1">
+      <c r="B3" s="8">
+        <v>9999999</v>
+      </c>
+      <c r="C3" s="8">
+        <v>9999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8524</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1118709</v>
+      </c>
+      <c r="F3" s="8">
+        <v>39627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="3">
+      <c r="B4" s="3">
         <v>2376301</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="3">
+      <c r="C4" s="3">
         <v>2969957</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="9">
-        <v>8524</v>
-      </c>
-      <c r="C4">
+      <c r="D4">
         <v>8323</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1118709</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="E4" s="3">
         <v>1107223</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="9">
-        <v>39627</v>
-      </c>
-      <c r="C6" s="7"/>
+      <c r="F4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -809,114 +813,115 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2019</v>
       </c>
-      <c r="C1">
+      <c r="B2" s="8">
+        <v>85636</v>
+      </c>
+      <c r="C2" s="8">
+        <v>9999999</v>
+      </c>
+      <c r="D2" s="8">
+        <v>9999999</v>
+      </c>
+      <c r="E2" s="8">
+        <v>9999999</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2507326</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1667795</v>
+      </c>
+      <c r="H2" s="8">
+        <v>15606</v>
+      </c>
+      <c r="I2" s="8">
+        <v>15549</v>
+      </c>
+      <c r="J2" s="8">
+        <v>7383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="3">
+      <c r="B3" s="3">
         <v>103310</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9"/>
       <c r="C3" s="5">
         <v>4036320</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="3">
+      <c r="D3" s="3">
         <v>1390660</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2507326</v>
-      </c>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1667795</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="3">
         <v>1858185</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9">
-        <v>15606</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="H3" s="3">
         <v>15401</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="9">
-        <v>15549</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="I3" s="3">
         <v>16660</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9">
-        <v>7383</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="J3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -926,77 +931,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C1" s="1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>2019</v>
       </c>
-      <c r="D1" s="1">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
+      <c r="B3">
         <v>19.850000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="C3">
+        <v>76.67</v>
       </c>
       <c r="D3">
-        <v>76.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="E3" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="F3" s="6">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="G3" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1008,100 +1007,104 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>311555</v>
+      </c>
+      <c r="F2">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>311555</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
-        <v>2019</v>
-      </c>
-      <c r="C1">
-        <v>2018</v>
-      </c>
-      <c r="D1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
       </c>
       <c r="B2">
         <v>1206444</v>
       </c>
-      <c r="C2" s="3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="3">
         <v>1045017</v>
       </c>
-      <c r="D2" s="3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="3">
         <v>911226</v>
       </c>
     </row>
@@ -1115,25 +1118,26 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>30</v>
       </c>
       <c r="B2">
         <v>1155944</v>
@@ -1147,58 +1151,59 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>2019</v>
-      </c>
-      <c r="C1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
       </c>
       <c r="B2">
         <v>2416</v>
       </c>
       <c r="C2">
+        <v>406</v>
+      </c>
+      <c r="D2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3">
         <v>979</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>406</v>
       </c>
       <c r="C3">
         <v>320</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
-        <v>911</v>
-      </c>
-      <c r="C4">
+      <c r="D3">
         <v>866</v>
       </c>
     </row>
@@ -1436,9 +1441,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baskausj/Documents/GitHub/dashboard/python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lannomla\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49037381-522F-1245-B89E-EF7DFD316838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F68BF6-E683-40C2-9B44-6D30814890BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -506,12 +506,12 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -527,7 +527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -535,7 +535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -543,7 +543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -551,7 +551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -559,7 +559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -567,7 +567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -575,7 +575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -583,7 +583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -591,7 +591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -599,7 +599,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -607,7 +607,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -615,7 +615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -623,7 +623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -631,7 +631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -639,7 +639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -660,15 +660,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -696,7 +696,7 @@
         <v>8869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -710,7 +710,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -738,17 +738,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -788,7 +788,7 @@
         <v>39627</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -819,21 +819,21 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -897,7 +897,7 @@
         <v>7383</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -933,22 +933,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -971,12 +971,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -1013,17 +1013,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1070,13 +1070,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1206444</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>1045017</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1121,13 +1121,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1153,19 +1153,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1214,6 +1214,39 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFBD00BD3A3E1E4A988918AADBA3442C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88f30bb8313cbfe73ab7c84b296b4218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffda594d-e23b-4583-b5d5-0ebe66b53dbd" xmlns:ns3="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f1bc45e0fc885fdfc66bf71deb596f" ns2:_="" ns3:_="">
     <xsd:import namespace="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
@@ -1378,40 +1411,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7953FC9-F19D-4967-A378-149CD58E2AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1428,29 +1453,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lannomla\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baskausj/Documents/GitHub/dashboard/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F68BF6-E683-40C2-9B44-6D30814890BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79775A1B-2415-3745-9A15-A81B4D7C8415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -506,12 +506,12 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -527,7 +527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -535,7 +535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -543,7 +543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -551,7 +551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -559,7 +559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -567,7 +567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -575,7 +575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -583,7 +583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -591,7 +591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -599,7 +599,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -607,7 +607,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -615,7 +615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -623,7 +623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -631,7 +631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -639,7 +639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -660,15 +660,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -696,7 +696,7 @@
         <v>8869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -710,7 +710,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -732,79 +732,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="8">
+        <v>9999999</v>
+      </c>
+      <c r="C2" s="8">
+        <v>9999999</v>
+      </c>
+      <c r="D2" s="8">
+        <v>8524</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1118709</v>
+      </c>
+      <c r="F2" s="8">
+        <v>39627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2019</v>
-      </c>
-      <c r="B3" s="8">
-        <v>9999999</v>
-      </c>
-      <c r="C3" s="8">
-        <v>9999999</v>
-      </c>
-      <c r="D3" s="8">
-        <v>8524</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1118709</v>
-      </c>
-      <c r="F3" s="8">
-        <v>39627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B3" s="3">
         <v>2376301</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C3" s="3">
         <v>2969957</v>
       </c>
-      <c r="D4">
+      <c r="D3">
         <v>8323</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E3" s="3">
         <v>1107223</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -819,21 +819,21 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -897,7 +897,7 @@
         <v>7383</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -937,18 +937,18 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -971,12 +971,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -1013,17 +1013,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1070,13 +1070,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1206444</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>1045017</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1121,13 +1121,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1153,19 +1153,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1214,6 +1214,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
@@ -1235,15 +1244,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1412,6 +1412,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1424,14 +1432,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baskausj/Documents/GitHub/dashboard/python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79775A1B-2415-3745-9A15-A81B4D7C8415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006F49D8-5E70-47CE-8B4B-9EDCD6727A6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27675" yWindow="330" windowWidth="24945" windowHeight="13395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -506,12 +506,12 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -527,7 +527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -535,7 +535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -543,7 +543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -551,7 +551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -559,7 +559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -567,7 +567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -575,7 +575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -583,7 +583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -591,7 +591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -599,7 +599,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -607,7 +607,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -615,7 +615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -623,7 +623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -631,7 +631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -639,7 +639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -660,15 +660,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -682,7 +682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -696,7 +696,7 @@
         <v>8869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -710,7 +710,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -735,20 +735,20 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -768,7 +768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -788,7 +788,7 @@
         <v>39627</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -819,21 +819,21 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -897,7 +897,7 @@
         <v>7383</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -937,18 +937,18 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -971,12 +971,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -1013,17 +1013,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1070,13 +1070,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1206444</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>1045017</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1121,13 +1121,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1157,15 +1157,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1214,39 +1214,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFBD00BD3A3E1E4A988918AADBA3442C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88f30bb8313cbfe73ab7c84b296b4218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffda594d-e23b-4583-b5d5-0ebe66b53dbd" xmlns:ns3="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f1bc45e0fc885fdfc66bf71deb596f" ns2:_="" ns3:_="">
     <xsd:import namespace="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
@@ -1411,32 +1378,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7953FC9-F19D-4967-A378-149CD58E2AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1453,4 +1428,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TaoWork\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006F49D8-5E70-47CE-8B4B-9EDCD6727A6F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88FC8BE-CCCC-4E48-A1FE-3DF35D41491E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27675" yWindow="330" windowWidth="24945" windowHeight="13395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="1220" windowWidth="16130" windowHeight="8810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>Print Items in Collection</t>
-  </si>
-  <si>
     <t>Electronic Items in Collection</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Print Items In Collection</t>
   </si>
 </sst>
 </file>
@@ -506,20 +506,20 @@
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -527,7 +527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -535,7 +535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -543,7 +543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -551,7 +551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -559,7 +559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -567,7 +567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -575,7 +575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -583,7 +583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -591,7 +591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -599,7 +599,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -607,7 +607,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -615,7 +615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -623,7 +623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -631,7 +631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -639,7 +639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -660,29 +660,29 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -696,7 +696,7 @@
         <v>8869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -710,7 +710,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -735,40 +735,40 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -788,7 +788,7 @@
         <v>39627</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -819,53 +819,53 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -897,7 +897,7 @@
         <v>7383</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -937,46 +937,46 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -1013,37 +1013,37 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1070,21 +1070,21 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1206444</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>1045017</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1121,21 +1121,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1157,29 +1157,29 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1214,6 +1214,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFBD00BD3A3E1E4A988918AADBA3442C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88f30bb8313cbfe73ab7c84b296b4218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffda594d-e23b-4583-b5d5-0ebe66b53dbd" xmlns:ns3="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f1bc45e0fc885fdfc66bf71deb596f" ns2:_="" ns3:_="">
     <xsd:import namespace="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
@@ -1378,15 +1387,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1412,6 +1412,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7953FC9-F19D-4967-A378-149CD58E2AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1430,14 +1438,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>

--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TaoWork\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88FC8BE-CCCC-4E48-A1FE-3DF35D41491E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009373CE-79C1-44C7-BE03-75AD2AFB6AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1410" yWindow="1220" windowWidth="16130" windowHeight="8810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,7 +143,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Print Items In Collection</t>
+    <t>Print Items in Collection</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1214,12 +1214,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1388,33 +1403,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1439,18 +1448,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TaoWork\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009373CE-79C1-44C7-BE03-75AD2AFB6AC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D271F7-A6BE-49AE-910A-339A71C51E48}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1220" windowWidth="16130" windowHeight="8810" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27855" yWindow="720" windowWidth="25470" windowHeight="13680" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Website" sheetId="8" r:id="rId8"/>
     <sheet name="SocialMedia" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,6 +44,9 @@
     <t>Rank</t>
   </si>
   <si>
+    <t>Print Items in Collection</t>
+  </si>
+  <si>
     <t>Electronic Items in Collection</t>
   </si>
   <si>
@@ -141,9 +144,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>Print Items in Collection</t>
   </si>
 </sst>
 </file>
@@ -503,23 +503,23 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -527,7 +527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -535,7 +535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -543,7 +543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -551,7 +551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -559,7 +559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -567,7 +567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -575,7 +575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -583,7 +583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -591,7 +591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -599,7 +599,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -607,7 +607,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -615,7 +615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -623,7 +623,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -631,7 +631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -639,7 +639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -657,32 +657,32 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -696,7 +696,7 @@
         <v>8869</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -710,7 +710,7 @@
         <v>7603</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -734,49 +734,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
       <c r="B2" s="8">
-        <v>9999999</v>
+        <v>2993999</v>
       </c>
       <c r="C2" s="8">
-        <v>9999999</v>
+        <v>2801553</v>
       </c>
       <c r="D2" s="8">
         <v>8524</v>
@@ -788,26 +788,15 @@
         <v>39627</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2376301</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2969957</v>
-      </c>
-      <c r="D3">
-        <v>8323</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1107223</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -819,53 +808,53 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -897,7 +886,7 @@
         <v>7383</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -933,50 +922,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>17.12</v>
+      </c>
+      <c r="C2">
+        <v>78.95</v>
+      </c>
+      <c r="D2">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -1013,37 +1011,37 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1070,21 +1068,21 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1092,7 +1090,7 @@
         <v>1206444</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>1045017</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1121,21 +1119,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1153,33 +1151,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1193,7 +1191,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -1214,30 +1212,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFBD00BD3A3E1E4A988918AADBA3442C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88f30bb8313cbfe73ab7c84b296b4218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffda594d-e23b-4583-b5d5-0ebe66b53dbd" xmlns:ns3="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f1bc45e0fc885fdfc66bf71deb596f" ns2:_="" ns3:_="">
     <xsd:import namespace="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
@@ -1402,7 +1376,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1411,24 +1385,31 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7953FC9-F19D-4967-A378-149CD58E2AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1447,10 +1428,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D271F7-A6BE-49AE-910A-339A71C51E48}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EF2909-F674-41E4-8AEA-62148946DC0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27855" yWindow="720" windowWidth="25470" windowHeight="13680" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="1410" windowWidth="25470" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Website" sheetId="8" r:id="rId8"/>
     <sheet name="SocialMedia" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -862,13 +862,13 @@
         <v>85636</v>
       </c>
       <c r="C2" s="8">
-        <v>9999999</v>
+        <v>4336241</v>
       </c>
       <c r="D2" s="8">
-        <v>9999999</v>
+        <v>2243861</v>
       </c>
       <c r="E2" s="8">
-        <v>9999999</v>
+        <v>0</v>
       </c>
       <c r="F2" s="8">
         <v>2507326</v>
@@ -1151,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1212,6 +1212,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFBD00BD3A3E1E4A988918AADBA3442C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88f30bb8313cbfe73ab7c84b296b4218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffda594d-e23b-4583-b5d5-0ebe66b53dbd" xmlns:ns3="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f1bc45e0fc885fdfc66bf71deb596f" ns2:_="" ns3:_="">
     <xsd:import namespace="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
@@ -1376,15 +1385,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1410,6 +1410,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7953FC9-F19D-4967-A378-149CD58E2AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1428,14 +1436,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>

--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EF2909-F674-41E4-8AEA-62148946DC0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDB5947-DCCE-44D2-9669-56A6F1BB4C4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="1410" windowWidth="25470" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Rank</t>
   </si>
@@ -57,15 +57,6 @@
   </si>
   <si>
     <t>%Other  Material Expenditures (collection maintance/binding)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Material Expenditures for Print </t>
-  </si>
-  <si>
-    <t>% Material Expenditures for Electronic</t>
-  </si>
-  <si>
-    <t>% Other Material Expenditures (collection maintance, binding)</t>
   </si>
   <si>
     <t>Research assistance</t>
@@ -502,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -513,7 +504,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -670,16 +661,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,7 +741,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -759,13 +750,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -824,34 +815,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -922,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +930,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -949,15 +940,6 @@
       </c>
       <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -987,15 +969,9 @@
       <c r="D3">
         <v>3.48</v>
       </c>
-      <c r="E3" s="6">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6">
-        <v>86</v>
-      </c>
-      <c r="G3" s="6">
-        <v>3</v>
-      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1023,22 +999,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1076,10 +1052,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1127,10 +1103,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,16 +1141,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,12 +1188,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1386,33 +1377,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1437,18 +1422,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDB5947-DCCE-44D2-9669-56A6F1BB4C4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31548B87-0E81-441B-8971-32A0413CF023}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,7 @@
     <sheet name="Expenditures" sheetId="5" r:id="rId5"/>
     <sheet name="SpacesStaff" sheetId="6" r:id="rId6"/>
     <sheet name="Visitors" sheetId="7" r:id="rId7"/>
-    <sheet name="Website" sheetId="8" r:id="rId8"/>
-    <sheet name="SocialMedia" sheetId="9" r:id="rId9"/>
+    <sheet name="SocialMedia" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Rank</t>
   </si>
@@ -86,9 +85,6 @@
     <t>Items delivered to faculty offices</t>
   </si>
   <si>
-    <t>Research database searches</t>
-  </si>
-  <si>
     <t>Library catalog searches</t>
   </si>
   <si>
@@ -101,9 +97,6 @@
     <t>Physical items borrowed</t>
   </si>
   <si>
-    <t>Library visitors</t>
-  </si>
-  <si>
     <t>Facebook followers</t>
   </si>
   <si>
@@ -113,9 +106,6 @@
     <t>Twitter followers</t>
   </si>
   <si>
-    <t>Website page views</t>
-  </si>
-  <si>
     <t>Campus libraries</t>
   </si>
   <si>
@@ -135,6 +125,12 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Library Visitors</t>
+  </si>
+  <si>
+    <t>All Libraries' Websites Pageviews</t>
   </si>
 </sst>
 </file>
@@ -197,12 +193,11 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -504,7 +499,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -661,7 +656,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -680,10 +675,10 @@
       <c r="B2">
         <v>1044</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>15758</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>8869</v>
       </c>
     </row>
@@ -741,7 +736,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -763,19 +758,19 @@
       <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>2993999</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>2801553</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>8524</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>1118709</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>39627</v>
       </c>
     </row>
@@ -783,7 +778,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -793,10 +788,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,103 +800,95 @@
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>85636</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>4336241</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>2243861</v>
       </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="7">
         <v>2507326</v>
       </c>
-      <c r="G2" s="8">
+      <c r="F2" s="7">
         <v>1667795</v>
       </c>
-      <c r="H2" s="8">
+      <c r="G2" s="7">
         <v>15606</v>
       </c>
-      <c r="I2" s="8">
+      <c r="H2" s="7">
         <v>15549</v>
       </c>
-      <c r="J2" s="8">
+      <c r="I2" s="7">
         <v>7383</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
       <c r="B3" s="3">
         <v>103310</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>4036320</v>
       </c>
       <c r="D3" s="3">
         <v>1390660</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="3">
+        <v>1858185</v>
+      </c>
       <c r="G3" s="3">
-        <v>1858185</v>
+        <v>15401</v>
       </c>
       <c r="H3" s="3">
-        <v>15401</v>
-      </c>
-      <c r="I3" s="3">
         <v>16660</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -913,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="102" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="102" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -930,7 +917,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -969,9 +956,9 @@
       <c r="D3">
         <v>3.48</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -999,22 +986,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1038,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,37 +1037,33 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
       <c r="B2">
         <v>1206444</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1045017</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="3">
-        <v>911226</v>
-      </c>
+      <c r="C2">
+        <v>10894129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1088,42 +1071,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2019</v>
-      </c>
-      <c r="B2">
-        <v>1155944</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1141,16 +1088,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1188,27 +1135,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1377,27 +1309,33 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1422,9 +1360,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31548B87-0E81-441B-8971-32A0413CF023}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7267CA3-CDE6-4020-BFF4-F75E8004EA53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Rank</t>
   </si>
@@ -55,9 +55,6 @@
     <t>% Material Expenditures for Recurring</t>
   </si>
   <si>
-    <t>%Other  Material Expenditures (collection maintance/binding)</t>
-  </si>
-  <si>
     <t>Research assistance</t>
   </si>
   <si>
@@ -112,15 +109,9 @@
     <t>Net square footage</t>
   </si>
   <si>
-    <t>Seats</t>
-  </si>
-  <si>
     <t>Permanent library staff</t>
   </si>
   <si>
-    <t>Study rooms</t>
-  </si>
-  <si>
     <t>Items loaned to libraries around the world</t>
   </si>
   <si>
@@ -131,6 +122,9 @@
   </si>
   <si>
     <t>All Libraries' Websites Pageviews</t>
+  </si>
+  <si>
+    <t>% Other  Material Expenditures (collection maintance/binding)</t>
   </si>
 </sst>
 </file>
@@ -499,7 +493,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -656,16 +650,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,7 +730,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -745,13 +739,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,31 +803,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -900,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,7 +911,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -926,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -968,10 +962,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,32 +973,24 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -1014,7 +1000,7 @@
       <c r="C2">
         <v>311555</v>
       </c>
-      <c r="F2">
+      <c r="D2">
         <v>171</v>
       </c>
     </row>
@@ -1027,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -1039,13 +1025,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,16 +1074,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7267CA3-CDE6-4020-BFF4-F75E8004EA53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258DC57E-5FC3-4966-A2A4-C49E6EF76EB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="390" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -118,13 +118,13 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Library Visitors</t>
-  </si>
-  <si>
     <t>All Libraries' Websites Pageviews</t>
   </si>
   <si>
     <t>% Other  Material Expenditures (collection maintance/binding)</t>
+  </si>
+  <si>
+    <t>Physical Libraries Visitors</t>
   </si>
 </sst>
 </file>
@@ -894,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -920,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,10 +1028,10 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,12 +1121,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1295,33 +1310,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1346,18 +1355,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258DC57E-5FC3-4966-A2A4-C49E6EF76EB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241502FF-2DF2-4F15-83A5-CEB20C918873}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="390" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="390" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -894,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1013,14 +1013,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,27 +1122,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1310,27 +1296,33 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1355,9 +1347,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241502FF-2DF2-4F15-83A5-CEB20C918873}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9615F9-54DA-4FDB-A830-A37960177597}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="390" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Presentation attendance</t>
   </si>
   <si>
-    <t>TV News Archive video segments</t>
-  </si>
-  <si>
     <t>Institutional Repository items</t>
   </si>
   <si>
@@ -118,13 +115,16 @@
     <t>Year</t>
   </si>
   <si>
-    <t>All Libraries' Websites Pageviews</t>
-  </si>
-  <si>
     <t>% Other  Material Expenditures (collection maintance/binding)</t>
   </si>
   <si>
-    <t>Physical Libraries Visitors</t>
+    <t>Televison News Archive video segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walk-in Visitors to Library Buildings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visits to Libraries' Websites </t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -650,7 +650,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -715,7 +715,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -739,13 +739,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -803,31 +803,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -920,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -978,16 +978,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,13 +1026,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,16 +1075,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,12 +1122,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1296,33 +1311,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1347,18 +1356,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9615F9-54DA-4FDB-A830-A37960177597}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2AA44D-8AEC-409D-B7BB-1B32CE74E115}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Rank</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Presentation attendance</t>
   </si>
   <si>
-    <t>Institutional Repository items</t>
-  </si>
-  <si>
     <t>Linear feet in Special Collections &amp; University Archives</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
   </si>
   <si>
     <t>% Other  Material Expenditures (collection maintance/binding)</t>
-  </si>
-  <si>
-    <t>Televison News Archive video segments</t>
   </si>
   <si>
     <t xml:space="preserve">Walk-in Visitors to Library Buildings </t>
@@ -493,7 +487,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -650,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -712,10 +706,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,14 +717,12 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -741,14 +733,8 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -759,20 +745,13 @@
         <v>2801553</v>
       </c>
       <c r="D2" s="7">
-        <v>8524</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1118709</v>
-      </c>
-      <c r="F2" s="7">
         <v>39627</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -803,31 +782,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -911,7 +890,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -920,7 +899,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -978,16 +957,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1013,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,13 +1005,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,16 +1054,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,27 +1101,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1311,27 +1275,33 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1356,9 +1326,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2AA44D-8AEC-409D-B7BB-1B32CE74E115}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2116C92-F70B-4B1F-A858-132F9D1F32B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t xml:space="preserve">% Material Expenditures for One-Time </t>
   </si>
   <si>
-    <t>% Material Expenditures for Recurring</t>
-  </si>
-  <si>
     <t>Research assistance</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">Visits to Libraries' Websites </t>
+  </si>
+  <si>
+    <t>% Material Expenditures for Ongoing</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -644,16 +644,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +722,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -731,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,31 +782,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,16 +890,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -957,16 +957,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,13 +1005,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1054,16 +1054,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,12 +1101,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1275,33 +1290,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1326,18 +1335,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2116C92-F70B-4B1F-A858-132F9D1F32B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41ED831-C9A8-4DE4-ABE4-35A5914561B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -115,10 +115,10 @@
     <t xml:space="preserve">Walk-in Visitors to Library Buildings </t>
   </si>
   <si>
-    <t xml:space="preserve">Visits to Libraries' Websites </t>
-  </si>
-  <si>
     <t>% Material Expenditures for Ongoing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visits to Libraries' Webpages </t>
   </si>
 </sst>
 </file>
@@ -873,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+    <sheetView zoomScale="102" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -896,7 +896,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1011,7 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41ED831-C9A8-4DE4-ABE4-35A5914561B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0279BE5-5670-4301-A850-99F6256E9254}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8775" yWindow="1080" windowWidth="20025" windowHeight="14490" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Visitors" sheetId="7" r:id="rId7"/>
     <sheet name="SocialMedia" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Rank</t>
   </si>
@@ -68,9 +71,6 @@
   </si>
   <si>
     <t>Items borrowed from libraries around the world</t>
-  </si>
-  <si>
-    <t>Items delivered to faculty offices</t>
   </si>
   <si>
     <t>Library catalog searches</t>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -621,6 +621,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -628,10 +636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +652,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -658,43 +666,57 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B2">
-        <v>1044</v>
-      </c>
-      <c r="C2" s="7">
-        <v>15758</v>
-      </c>
-      <c r="D2" s="8">
-        <v>8869</v>
+        <v>1272</v>
+      </c>
+      <c r="C2">
+        <v>17510</v>
+      </c>
+      <c r="D2">
+        <v>13872</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B3">
-        <v>898</v>
-      </c>
-      <c r="C3" s="2">
-        <v>11372</v>
-      </c>
-      <c r="D3" s="2">
-        <v>7603</v>
+        <v>1044</v>
+      </c>
+      <c r="C3" s="7">
+        <v>15758</v>
+      </c>
+      <c r="D3" s="8">
+        <v>8869</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4">
+        <v>898</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11372</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2017</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>768</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>11134</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>8383</v>
       </c>
     </row>
@@ -706,10 +728,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -736,22 +758,36 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>2868659</v>
+      </c>
+      <c r="C2">
+        <v>2850467</v>
+      </c>
+      <c r="D2">
+        <v>39627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2019</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B3" s="7">
         <v>2993999</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="7">
         <v>2801553</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D3" s="7">
         <v>39627</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="9"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -761,10 +797,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,24 +813,23 @@
     <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -803,65 +838,84 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>60268</v>
+      </c>
+      <c r="C2">
+        <v>2971571</v>
+      </c>
+      <c r="D2">
+        <v>537016</v>
+      </c>
+      <c r="E2">
+        <v>6412039</v>
+      </c>
+      <c r="F2">
+        <v>1298547</v>
+      </c>
+      <c r="G2">
+        <v>15106</v>
+      </c>
+      <c r="H2">
+        <v>15421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2019</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B3" s="7">
         <v>85636</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="7">
         <v>4336241</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D3" s="7">
         <v>2243861</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E3" s="7">
         <v>2507326</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F3" s="7">
         <v>1667795</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G3" s="7">
         <v>15606</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H3" s="7">
         <v>15549</v>
       </c>
-      <c r="I2" s="7">
-        <v>7383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>103310</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="4">
         <v>4036320</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>1390660</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="3">
+      <c r="E4" s="6"/>
+      <c r="F4" s="3">
         <v>1858185</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G4" s="3">
         <v>15401</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H4" s="3">
         <v>16660</v>
       </c>
-      <c r="I3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -871,10 +925,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,48 +944,62 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2019</v>
+      <c r="A2">
+        <v>2020</v>
       </c>
       <c r="B2">
-        <v>17.12</v>
+        <v>12.66</v>
       </c>
       <c r="C2">
-        <v>78.95</v>
+        <v>83.24</v>
       </c>
       <c r="D2">
-        <v>3.93</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <v>17.12</v>
+      </c>
+      <c r="C3">
+        <v>78.95</v>
+      </c>
+      <c r="D3">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2018</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>19.850000000000001</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>76.67</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>3.48</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -941,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,29 +1025,43 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>311555</v>
       </c>
       <c r="D2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>311555</v>
+      </c>
+      <c r="D3">
         <v>171</v>
       </c>
     </row>
@@ -990,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,31 +1087,42 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B2">
-        <v>1206444</v>
+        <v>759258</v>
       </c>
       <c r="C2">
         <v>10894129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <v>1206444</v>
+      </c>
+      <c r="C3">
+        <v>10894129</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,43 +1147,57 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B2">
-        <v>2416</v>
+        <v>2538</v>
       </c>
       <c r="C2">
-        <v>406</v>
+        <v>585</v>
       </c>
       <c r="D2">
-        <v>911</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <v>2416</v>
+      </c>
+      <c r="C3">
+        <v>406</v>
+      </c>
+      <c r="D3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>979</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>320</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>866</v>
       </c>
     </row>
@@ -1101,27 +1208,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1290,27 +1382,33 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1335,9 +1433,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0279BE5-5670-4301-A850-99F6256E9254}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F53986-DB88-4B8F-8F3E-4EB482A72F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8775" yWindow="1080" windowWidth="20025" windowHeight="14490" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8775" yWindow="1080" windowWidth="20025" windowHeight="14490" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,7 +928,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1208,12 +1208,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1382,33 +1397,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1433,18 +1442,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/python/BytheNumbersWorksheet.xlsx
+++ b/python/BytheNumbersWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DASHBOARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F53986-DB88-4B8F-8F3E-4EB482A72F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F97CDA0-D846-44EE-B2C3-4268E8CDA54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8775" yWindow="1080" windowWidth="20025" windowHeight="14490" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="SpacesStaff" sheetId="6" r:id="rId6"/>
     <sheet name="Visitors" sheetId="7" r:id="rId7"/>
     <sheet name="SocialMedia" sheetId="9" r:id="rId8"/>
+    <sheet name="DigitalCollection" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Rank</t>
   </si>
@@ -119,6 +120,51 @@
   </si>
   <si>
     <t xml:space="preserve">Visits to Libraries' Webpages </t>
+  </si>
+  <si>
+    <t>Notable Digital Collections</t>
+  </si>
+  <si>
+    <t>Number of Digital Items</t>
+  </si>
+  <si>
+    <t>Television News Archive</t>
+  </si>
+  <si>
+    <t>History of Art Image Repository</t>
+  </si>
+  <si>
+    <t>Institutional Respository</t>
+  </si>
+  <si>
+    <t>Fine Arts Gallery</t>
+  </si>
+  <si>
+    <t>Art in the Christian Tradition</t>
+  </si>
+  <si>
+    <t>The Nürnberg Krupp Trial Papers of Judge Hu C. Anderson</t>
+  </si>
+  <si>
+    <t>ETD, Electronic Theses &amp; Dissertations</t>
+  </si>
+  <si>
+    <t>History of Medicine Collection</t>
+  </si>
+  <si>
+    <t>Blair Performance Archive</t>
+  </si>
+  <si>
+    <t>Helguera Collection of Colombiana</t>
+  </si>
+  <si>
+    <t>Manual Zapata Olivella</t>
+  </si>
+  <si>
+    <t>Global Music Archive</t>
+  </si>
+  <si>
+    <t>Revised Common Lectionary</t>
   </si>
 </sst>
 </file>
@@ -474,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,6 +675,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -636,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,57 +720,71 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B2">
-        <v>1272</v>
+        <v>1229</v>
       </c>
       <c r="C2">
-        <v>17510</v>
+        <v>11722</v>
       </c>
       <c r="D2">
-        <v>13872</v>
+        <v>21946</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B3">
-        <v>1044</v>
-      </c>
-      <c r="C3" s="7">
-        <v>15758</v>
-      </c>
-      <c r="D3" s="8">
-        <v>8869</v>
+        <v>1272</v>
+      </c>
+      <c r="C3">
+        <v>17510</v>
+      </c>
+      <c r="D3">
+        <v>13872</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B4">
-        <v>898</v>
-      </c>
-      <c r="C4" s="2">
-        <v>11372</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7603</v>
+        <v>1044</v>
+      </c>
+      <c r="C4" s="7">
+        <v>15758</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8869</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>898</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11372</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2017</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>768</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>11134</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>8383</v>
       </c>
     </row>
@@ -728,10 +796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,13 +826,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B2">
-        <v>2868659</v>
+        <v>2857879</v>
       </c>
       <c r="C2">
-        <v>2850467</v>
+        <v>3114927</v>
       </c>
       <c r="D2">
         <v>39627</v>
@@ -772,22 +840,36 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3">
+        <v>2868659</v>
+      </c>
+      <c r="C3">
+        <v>2850467</v>
+      </c>
+      <c r="D3">
+        <v>39627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>2019</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B4" s="7">
         <v>2993999</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="7">
         <v>2801553</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D4" s="7">
         <v>39627</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="9"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -797,10 +879,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,77 +925,103 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B2">
-        <v>60268</v>
+        <v>17261</v>
       </c>
       <c r="C2">
-        <v>2971571</v>
+        <v>3071624</v>
       </c>
       <c r="D2">
-        <v>537016</v>
+        <v>690754</v>
       </c>
       <c r="E2">
-        <v>6412039</v>
+        <v>7845811</v>
       </c>
       <c r="F2">
-        <v>1298547</v>
+        <v>1218407</v>
       </c>
       <c r="G2">
-        <v>15106</v>
+        <v>11962</v>
       </c>
       <c r="H2">
-        <v>15421</v>
+        <v>13457</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2019</v>
-      </c>
-      <c r="B3" s="7">
-        <v>85636</v>
-      </c>
-      <c r="C3" s="7">
-        <v>4336241</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2243861</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2507326</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1667795</v>
-      </c>
-      <c r="G3" s="7">
-        <v>15606</v>
-      </c>
-      <c r="H3" s="7">
-        <v>15549</v>
+        <v>2020</v>
+      </c>
+      <c r="B3">
+        <v>60268</v>
+      </c>
+      <c r="C3">
+        <v>2971571</v>
+      </c>
+      <c r="D3">
+        <v>537016</v>
+      </c>
+      <c r="E3">
+        <v>6412039</v>
+      </c>
+      <c r="F3">
+        <v>1298547</v>
+      </c>
+      <c r="G3">
+        <v>15106</v>
+      </c>
+      <c r="H3">
+        <v>15421</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="7">
+        <v>85636</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4336241</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2243861</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2507326</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1667795</v>
+      </c>
+      <c r="G4" s="7">
+        <v>15606</v>
+      </c>
+      <c r="H4" s="7">
+        <v>15549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2018</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3">
         <v>103310</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="4">
         <v>4036320</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>1390660</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3">
+      <c r="E5" s="6"/>
+      <c r="F5" s="3">
         <v>1858185</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G5" s="3">
         <v>15401</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H5" s="3">
         <v>16660</v>
       </c>
     </row>
@@ -925,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,48 +1066,62 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="C2">
+        <v>76.510000000000005</v>
+      </c>
+      <c r="D2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2020</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>12.66</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>83.24</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B3">
-        <v>17.12</v>
-      </c>
-      <c r="C3">
-        <v>78.95</v>
-      </c>
-      <c r="D3">
-        <v>3.93</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>17.12</v>
+      </c>
+      <c r="C4">
+        <v>78.95</v>
+      </c>
+      <c r="D4">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2018</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>19.850000000000001</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>76.67</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>3.48</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1009,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1161,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1048,20 +1170,34 @@
         <v>311555</v>
       </c>
       <c r="D2">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>311555</v>
       </c>
       <c r="D3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>311555</v>
+      </c>
+      <c r="D4">
         <v>171</v>
       </c>
     </row>
@@ -1072,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,31 +1234,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B2">
-        <v>759258</v>
+        <v>251916</v>
       </c>
       <c r="C2">
         <v>10894129</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B3">
-        <v>1206444</v>
+        <v>759258</v>
       </c>
       <c r="C3">
         <v>10894129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>1206444</v>
+      </c>
+      <c r="C4">
+        <v>10894129</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,10 +1278,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,43 +1308,57 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B2">
-        <v>2538</v>
+        <v>2573</v>
       </c>
       <c r="C2">
-        <v>585</v>
+        <v>1082</v>
       </c>
       <c r="D2">
-        <v>1009</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B3">
-        <v>2416</v>
+        <v>2538</v>
       </c>
       <c r="C3">
-        <v>406</v>
+        <v>585</v>
       </c>
       <c r="D3">
-        <v>911</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4">
+        <v>2416</v>
+      </c>
+      <c r="C4">
+        <v>406</v>
+      </c>
+      <c r="D4">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2018</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>979</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>320</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>866</v>
       </c>
     </row>
@@ -1207,31 +1368,138 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F4068B-940E-4D67-87A1-EE0F63CDDCD9}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1293716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>106259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>9687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
-      <UserInfo>
-        <DisplayName>Baskauf, Steven James</DisplayName>
-        <AccountId>331</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>You, Tao</DisplayName>
-        <AccountId>39</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carnes, Taylor</DisplayName>
-        <AccountId>556</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BFBD00BD3A3E1E4A988918AADBA3442C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="88f30bb8313cbfe73ab7c84b296b4218">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ffda594d-e23b-4583-b5d5-0ebe66b53dbd" xmlns:ns3="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04f1bc45e0fc885fdfc66bf71deb596f" ns2:_="" ns3:_="">
     <xsd:import namespace="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
@@ -1396,6 +1664,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2">
+      <UserInfo>
+        <DisplayName>Baskauf, Steven James</DisplayName>
+        <AccountId>331</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>You, Tao</DisplayName>
+        <AccountId>39</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carnes, Taylor</DisplayName>
+        <AccountId>556</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1406,23 +1698,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7953FC9-F19D-4967-A378-149CD58E2AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1441,6 +1716,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F54041C0-C8B4-442E-B92E-3FCFCD1EF89D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ffda594d-e23b-4583-b5d5-0ebe66b53dbd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a63f8c51-8f9e-4dd1-b6cd-8c5ff29615d2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00D6D499-0000-4C85-8F24-AD9A81FFD6C2}">
   <ds:schemaRefs>
